--- a/Code/Results/Cases/Case_1_172/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_172/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.04621953989336</v>
+        <v>18.29902407426881</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.719703544120559</v>
+        <v>3.321983734294835</v>
       </c>
       <c r="E2">
-        <v>28.02816622430721</v>
+        <v>22.22837199877379</v>
       </c>
       <c r="F2">
-        <v>20.33948703177787</v>
+        <v>20.21626514600529</v>
       </c>
       <c r="G2">
-        <v>2.023601644985808</v>
+        <v>3.584377088681463</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>19.34384620748099</v>
+        <v>23.46264064641604</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>13.69651782077274</v>
+        <v>10.93141291190411</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.13548564197021</v>
+        <v>17.67226705651923</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.49300528481809</v>
+        <v>17.65096240997742</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.643922057132126</v>
+        <v>3.303029945144904</v>
       </c>
       <c r="E3">
-        <v>26.63311430626017</v>
+        <v>21.6857031924515</v>
       </c>
       <c r="F3">
-        <v>19.169612752491</v>
+        <v>20.06091868441453</v>
       </c>
       <c r="G3">
-        <v>2.030565228116518</v>
+        <v>3.587001364298853</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>18.9473689903758</v>
+        <v>23.48418673120655</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.81498102322115</v>
+        <v>10.61887955063239</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.40808278677444</v>
+        <v>17.6386770513107</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.48580874620002</v>
+        <v>17.24002252170484</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.596408340742005</v>
+        <v>3.29143081939468</v>
       </c>
       <c r="E4">
-        <v>25.74000584974128</v>
+        <v>21.3477361168436</v>
       </c>
       <c r="F4">
-        <v>18.44276882716686</v>
+        <v>19.97426818049504</v>
       </c>
       <c r="G4">
-        <v>2.034961058166363</v>
+        <v>3.588697700247949</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>18.72374814184145</v>
+        <v>23.50656173551024</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.24297540570459</v>
+        <v>10.42234057075294</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.96658330190631</v>
+        <v>17.62555077387836</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.06190760033173</v>
+        <v>17.06949089503825</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.576819593555248</v>
+        <v>3.286716404817432</v>
       </c>
       <c r="E5">
-        <v>25.36727236784359</v>
+        <v>21.20901467006871</v>
       </c>
       <c r="F5">
-        <v>18.14481069506389</v>
+        <v>19.94118974013913</v>
       </c>
       <c r="G5">
-        <v>2.036783711656208</v>
+        <v>3.589410421975019</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>18.63759087604203</v>
+        <v>23.51797748065249</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.00213534444222</v>
+        <v>10.34118407205264</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.78821390198101</v>
+        <v>17.62208588404232</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.99070654080442</v>
+        <v>17.04099524523132</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.57355386203522</v>
+        <v>3.285934400318339</v>
       </c>
       <c r="E6">
-        <v>25.30486293530189</v>
+        <v>21.18592594237226</v>
       </c>
       <c r="F6">
-        <v>18.09524117879552</v>
+        <v>19.93583287365052</v>
       </c>
       <c r="G6">
-        <v>2.037088284368356</v>
+        <v>3.589530066584085</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>18.62358396801784</v>
+        <v>23.52001174381786</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.96167618318075</v>
+        <v>10.32764688660641</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.75869710831969</v>
+        <v>17.62162425064627</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.48014635492218</v>
+        <v>17.2377348164941</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.59614504829201</v>
+        <v>3.291367185823953</v>
       </c>
       <c r="E7">
-        <v>25.73501401676528</v>
+        <v>21.34586903454753</v>
       </c>
       <c r="F7">
-        <v>18.43875703624051</v>
+        <v>19.97381299047138</v>
       </c>
       <c r="G7">
-        <v>2.034985510895695</v>
+        <v>3.588707225312429</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>18.72256610181233</v>
+        <v>23.50670639267062</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.23975871448402</v>
+        <v>10.42125023873479</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.96417113580003</v>
+        <v>17.62549641998267</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.5217695760546</v>
+        <v>18.07839291101672</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.693790089101591</v>
+        <v>3.315442039703176</v>
       </c>
       <c r="E8">
-        <v>27.55495701420831</v>
+        <v>22.04236659460201</v>
       </c>
       <c r="F8">
-        <v>19.93809214079981</v>
+        <v>20.16091269773922</v>
       </c>
       <c r="G8">
-        <v>2.025978432762773</v>
+        <v>3.585264336449044</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>19.20302480709305</v>
+        <v>23.46817086866992</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.39893216479235</v>
+        <v>10.82467380585996</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.88375694573197</v>
+        <v>17.65912903290348</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.10205435578951</v>
+        <v>19.61560084863116</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.876660010590444</v>
+        <v>3.362843463261235</v>
       </c>
       <c r="E9">
-        <v>30.8195789459379</v>
+        <v>23.36207995711651</v>
       </c>
       <c r="F9">
-        <v>22.9103274841241</v>
+        <v>20.59524109421572</v>
       </c>
       <c r="G9">
-        <v>2.009215578399351</v>
+        <v>3.579184149170171</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>20.30231449430382</v>
+        <v>23.46518209735814</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>15.42932149507436</v>
+        <v>11.57485342926473</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.81137890718592</v>
+        <v>17.78450567751094</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.53182173211185</v>
+        <v>20.66788782884988</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.004841052562325</v>
+        <v>3.397631026482121</v>
       </c>
       <c r="E10">
-        <v>33.01745288357237</v>
+        <v>24.29327121697127</v>
       </c>
       <c r="F10">
-        <v>25.21226645184739</v>
+        <v>20.95260291744956</v>
       </c>
       <c r="G10">
-        <v>1.997368103011068</v>
+        <v>3.575121676681082</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>21.20490158738523</v>
+        <v>23.50713768744078</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>16.7752810588592</v>
+        <v>12.09610776561251</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.56983503523095</v>
+        <v>17.91256504158473</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.58709817862331</v>
+        <v>21.12827698322638</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.06166376507917</v>
+        <v>3.413415513884966</v>
       </c>
       <c r="E11">
-        <v>33.97152670528084</v>
+        <v>24.7066250366091</v>
       </c>
       <c r="F11">
-        <v>26.22944102290055</v>
+        <v>21.12279103237451</v>
       </c>
       <c r="G11">
-        <v>1.992060435876985</v>
+        <v>3.573360435061992</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>21.6358429500612</v>
+        <v>23.53575294890928</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>17.35656545371586</v>
+        <v>12.3258508305911</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.34689681291581</v>
+        <v>17.97850990194764</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.97851798915417</v>
+        <v>21.29987258150918</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.082957684775999</v>
+        <v>3.41938406147874</v>
       </c>
       <c r="E12">
-        <v>34.32609572703868</v>
+        <v>24.86153348525485</v>
       </c>
       <c r="F12">
-        <v>26.61043594147132</v>
+        <v>21.18827006299184</v>
       </c>
       <c r="G12">
-        <v>1.990060539178043</v>
+        <v>3.57270590526298</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>21.80193116529859</v>
+        <v>23.54795116924909</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>17.57228346582584</v>
+        <v>12.41172248365569</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.63799684762707</v>
+        <v>18.00457322947456</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.89458092740229</v>
+        <v>21.26304005779467</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.078381732931095</v>
+        <v>3.418099060139125</v>
       </c>
       <c r="E13">
-        <v>34.25003360547071</v>
+        <v>24.82824540394294</v>
       </c>
       <c r="F13">
-        <v>26.52856564057344</v>
+        <v>21.17412310164601</v>
       </c>
       <c r="G13">
-        <v>1.990490837698891</v>
+        <v>3.572846318908252</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>21.76603245824831</v>
+        <v>23.54526362692032</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>17.52601954725272</v>
+        <v>12.39327959325618</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.57544121197246</v>
+        <v>17.99891173985874</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.61946392631366</v>
+        <v>21.14244983536933</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.063420157422593</v>
+        <v>3.413906740510841</v>
       </c>
       <c r="E14">
-        <v>34.00083263412482</v>
+        <v>24.71940269947133</v>
       </c>
       <c r="F14">
-        <v>26.26086874944736</v>
+        <v>21.12815771244647</v>
       </c>
       <c r="G14">
-        <v>1.991895713398736</v>
+        <v>3.573306338086357</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>21.64944913177902</v>
+        <v>23.53672925548435</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>17.37440058067446</v>
+        <v>12.33293848554147</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.37090818574885</v>
+        <v>17.98063236505383</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.44988403006612</v>
+        <v>21.06822444727526</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.054226391703648</v>
+        <v>3.411337606534123</v>
       </c>
       <c r="E15">
-        <v>33.84731137993885</v>
+        <v>24.65251835650286</v>
       </c>
       <c r="F15">
-        <v>26.09635584536914</v>
+        <v>21.10013511282332</v>
       </c>
       <c r="G15">
-        <v>1.992757487775961</v>
+        <v>3.573589727821145</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>21.57841548731991</v>
+        <v>23.53167883856502</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>17.28095810763519</v>
+        <v>12.29582919302693</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.24521916710951</v>
+        <v>17.96957738695281</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.46170377307973</v>
+        <v>20.63742212245332</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.001096739524141</v>
+        <v>3.396598412020561</v>
       </c>
       <c r="E16">
-        <v>32.95416865122871</v>
+        <v>24.26603857681531</v>
       </c>
       <c r="F16">
-        <v>25.14519799055626</v>
+        <v>20.94162872938678</v>
       </c>
       <c r="G16">
-        <v>1.997716470715062</v>
+        <v>3.575238518796432</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>21.1771456712171</v>
+        <v>23.50545872208314</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>16.73667360951921</v>
+        <v>12.08093924270206</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.51860266455992</v>
+        <v>17.90840896350636</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.84076165170287</v>
+        <v>20.36836688356495</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.968114793117814</v>
+        <v>3.387543966306685</v>
       </c>
       <c r="E17">
-        <v>32.39442711066984</v>
+        <v>24.02621287129588</v>
       </c>
       <c r="F17">
-        <v>24.5540881859553</v>
+        <v>20.84629808728026</v>
       </c>
       <c r="G17">
-        <v>2.000778394876716</v>
+        <v>3.576272181631497</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>20.93617136919885</v>
+        <v>23.49180910223921</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>16.39487085867406</v>
+        <v>11.94717228603483</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.06707440015371</v>
+        <v>17.87284432039864</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.47816011403678</v>
+        <v>20.2118965017548</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.949004875378363</v>
+        <v>3.382332442620979</v>
       </c>
       <c r="E18">
-        <v>32.06817840703917</v>
+        <v>23.88731462998073</v>
       </c>
       <c r="F18">
-        <v>24.2112644879458</v>
+        <v>20.79218787940311</v>
       </c>
       <c r="G18">
-        <v>2.002547347425795</v>
+        <v>3.57687489093512</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>20.79948613533372</v>
+        <v>23.48485576325152</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>16.19535341822199</v>
+        <v>11.86954210698524</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.80520499097137</v>
+        <v>17.85311332892367</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.35444928571296</v>
+        <v>20.15862709604547</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.942510947408278</v>
+        <v>3.380567371528313</v>
       </c>
       <c r="E19">
-        <v>31.95698243038123</v>
+        <v>23.8401263796626</v>
       </c>
       <c r="F19">
-        <v>24.09470058599347</v>
+        <v>20.77399289783739</v>
       </c>
       <c r="G19">
-        <v>2.003147677686098</v>
+        <v>3.577080363858337</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>20.75353696964603</v>
+        <v>23.48265585447735</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>16.12729686045022</v>
+        <v>11.84314131498535</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.71616558792496</v>
+        <v>17.84655764313071</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.90742536449648</v>
+        <v>20.39718682714348</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.971640300770046</v>
+        <v>3.388508225630372</v>
       </c>
       <c r="E20">
-        <v>32.45445871746355</v>
+        <v>24.0518428515855</v>
       </c>
       <c r="F20">
-        <v>24.61730526217098</v>
+        <v>20.85637198130261</v>
       </c>
       <c r="G20">
-        <v>2.00045165128469</v>
+        <v>3.576161300990329</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>20.96162532198249</v>
+        <v>23.4931692858421</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>16.43155832743842</v>
+        <v>11.96148401948886</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.11536328004538</v>
+        <v>17.87655531384286</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.7004937088935</v>
+        <v>21.17794539233754</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.067820869285583</v>
+        <v>3.415138385151937</v>
       </c>
       <c r="E21">
-        <v>34.07421227498826</v>
+        <v>24.75141749788959</v>
       </c>
       <c r="F21">
-        <v>26.33961024059977</v>
+        <v>21.14163135961537</v>
       </c>
       <c r="G21">
-        <v>1.991482810762284</v>
+        <v>3.573170882919584</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>21.68361394899213</v>
+        <v>23.53919911016124</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>17.41905373362025</v>
+        <v>12.35069321267586</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.43106895872793</v>
+        <v>17.98597196656481</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.82468987962293</v>
+        <v>21.67218150690564</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.129374229122499</v>
+        <v>3.432490733882402</v>
       </c>
       <c r="E22">
-        <v>35.09361432283888</v>
+        <v>25.19913033397475</v>
       </c>
       <c r="F22">
-        <v>27.44091890244766</v>
+        <v>21.3340518058423</v>
       </c>
       <c r="G22">
-        <v>1.985678513711618</v>
+        <v>3.57128880028169</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>22.17237274737296</v>
+        <v>23.57721737280778</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>18.03881241732292</v>
+        <v>12.59846860888076</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.2726428780642</v>
+        <v>18.06383535140738</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.22900443634605</v>
+        <v>21.40989884835629</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.096644160899365</v>
+        <v>3.423235159204453</v>
       </c>
       <c r="E23">
-        <v>34.55316496895315</v>
+        <v>24.96109175791975</v>
       </c>
       <c r="F23">
-        <v>26.85530242122955</v>
+        <v>21.23082722544794</v>
       </c>
       <c r="G23">
-        <v>1.988771753664633</v>
+        <v>3.572286707242905</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>21.90997354304659</v>
+        <v>23.55620340387754</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>17.71036033779722</v>
+        <v>12.46684978523135</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.82510367842289</v>
+        <v>18.02170228491368</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.87730419471406</v>
+        <v>20.38416288788476</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.970046879473402</v>
+        <v>3.388072302442772</v>
       </c>
       <c r="E24">
-        <v>32.42733226491573</v>
+        <v>24.04025870101654</v>
       </c>
       <c r="F24">
-        <v>24.58873413420506</v>
+        <v>20.85181539893507</v>
       </c>
       <c r="G24">
-        <v>2.000599345108098</v>
+        <v>3.576211403823585</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>20.95011181269738</v>
+        <v>23.492551561413</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>16.41498130395922</v>
+        <v>11.95501594033633</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.09353898814312</v>
+        <v>17.87487534354424</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.17854921356794</v>
+        <v>19.21269049066636</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.828214590584603</v>
+        <v>3.350015617516521</v>
       </c>
       <c r="E25">
-        <v>29.97075030940575</v>
+        <v>23.01110935645121</v>
       </c>
       <c r="F25">
-        <v>22.03543854880952</v>
+        <v>20.47080148914001</v>
       </c>
       <c r="G25">
-        <v>2.013661952601093</v>
+        <v>3.580757610522254</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>19.98816236336118</v>
+        <v>23.45822308277888</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>14.90583453092729</v>
+        <v>11.37683258282155</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.21978864223034</v>
+        <v>17.74424433659976</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_172/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_172/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.29902407426881</v>
+        <v>24.04621953989334</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.321983734294835</v>
+        <v>2.719703544120708</v>
       </c>
       <c r="E2">
-        <v>22.22837199877379</v>
+        <v>28.02816622430713</v>
       </c>
       <c r="F2">
-        <v>20.21626514600529</v>
+        <v>20.33948703177788</v>
       </c>
       <c r="G2">
-        <v>3.584377088681463</v>
+        <v>2.023601644985542</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>23.46264064641604</v>
+        <v>19.34384620748091</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.93141291190411</v>
+        <v>13.69651782077277</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.67226705651923</v>
+        <v>15.13548564197019</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.65096240997742</v>
+        <v>22.49300528481812</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.303029945144904</v>
+        <v>2.643922057132072</v>
       </c>
       <c r="E3">
-        <v>21.6857031924515</v>
+        <v>26.63311430626025</v>
       </c>
       <c r="F3">
-        <v>20.06091868441453</v>
+        <v>19.16961275249104</v>
       </c>
       <c r="G3">
-        <v>3.587001364298853</v>
+        <v>2.030565228116652</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.48418673120655</v>
+        <v>18.94736899037578</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.61887955063239</v>
+        <v>12.81498102322109</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.6386770513107</v>
+        <v>14.40808278677448</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.24002252170484</v>
+        <v>21.48580874620004</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.29143081939468</v>
+        <v>2.596408340741999</v>
       </c>
       <c r="E4">
-        <v>21.3477361168436</v>
+        <v>25.74000584974117</v>
       </c>
       <c r="F4">
-        <v>19.97426818049504</v>
+        <v>18.44276882716688</v>
       </c>
       <c r="G4">
-        <v>3.588697700247949</v>
+        <v>2.034961058166362</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.50656173551024</v>
+        <v>18.72374814184133</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.42234057075294</v>
+        <v>12.24297540570454</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.62555077387836</v>
+        <v>13.96658330190632</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.06949089503825</v>
+        <v>21.06190760033173</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.286716404817432</v>
+        <v>2.576819593555282</v>
       </c>
       <c r="E5">
-        <v>21.20901467006871</v>
+        <v>25.36727236784355</v>
       </c>
       <c r="F5">
-        <v>19.94118974013913</v>
+        <v>18.14481069506393</v>
       </c>
       <c r="G5">
-        <v>3.589410421975019</v>
+        <v>2.036783711656478</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.51797748065249</v>
+        <v>18.63759087604208</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.34118407205264</v>
+        <v>12.00213534444221</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.62208588404232</v>
+        <v>13.78821390198107</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.04099524523132</v>
+        <v>20.99070654080441</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.285934400318339</v>
+        <v>2.573553862035264</v>
       </c>
       <c r="E6">
-        <v>21.18592594237226</v>
+        <v>25.30486293530192</v>
       </c>
       <c r="F6">
-        <v>19.93583287365052</v>
+        <v>18.09524117879549</v>
       </c>
       <c r="G6">
-        <v>3.589530066584085</v>
+        <v>2.037088284368357</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.52001174381786</v>
+        <v>18.62358396801782</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.32764688660641</v>
+        <v>11.96167618318071</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.62162425064627</v>
+        <v>13.75869710831967</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.2377348164941</v>
+        <v>21.48014635492218</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.291367185823953</v>
+        <v>2.596145048292059</v>
       </c>
       <c r="E7">
-        <v>21.34586903454753</v>
+        <v>25.73501401676517</v>
       </c>
       <c r="F7">
-        <v>19.97381299047138</v>
+        <v>18.43875703624052</v>
       </c>
       <c r="G7">
-        <v>3.588707225312429</v>
+        <v>2.034985510895563</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.50670639267062</v>
+        <v>18.72256610181227</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.42125023873479</v>
+        <v>12.23975871448398</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.62549641998267</v>
+        <v>13.96417113580004</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.07839291101672</v>
+        <v>23.52176957605458</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.315442039703176</v>
+        <v>2.693790089101562</v>
       </c>
       <c r="E8">
-        <v>22.04236659460201</v>
+        <v>27.55495701420825</v>
       </c>
       <c r="F8">
-        <v>20.16091269773922</v>
+        <v>19.93809214079984</v>
       </c>
       <c r="G8">
-        <v>3.585264336449044</v>
+        <v>2.025978432762638</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23.46817086866992</v>
+        <v>19.20302480709298</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.82467380585996</v>
+        <v>13.39893216479232</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.65912903290348</v>
+        <v>14.88375694573199</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.61560084863116</v>
+        <v>27.10205435578949</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.362843463261235</v>
+        <v>2.876660010590415</v>
       </c>
       <c r="E9">
-        <v>23.36207995711651</v>
+        <v>30.81957894593788</v>
       </c>
       <c r="F9">
-        <v>20.59524109421572</v>
+        <v>22.91032748412415</v>
       </c>
       <c r="G9">
-        <v>3.579184149170171</v>
+        <v>2.009215578399485</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>23.46518209735814</v>
+        <v>20.30231449430375</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.57485342926473</v>
+        <v>15.42932149507436</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.78450567751094</v>
+        <v>16.81137890718595</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.66788782884988</v>
+        <v>29.5318217321118</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.397631026482121</v>
+        <v>3.004841052562389</v>
       </c>
       <c r="E10">
-        <v>24.29327121697127</v>
+        <v>33.01745288357235</v>
       </c>
       <c r="F10">
-        <v>20.95260291744956</v>
+        <v>25.21226645184743</v>
       </c>
       <c r="G10">
-        <v>3.575121676681082</v>
+        <v>1.997368103011201</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>23.50713768744078</v>
+        <v>21.20490158738517</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.09610776561251</v>
+        <v>16.77528105885917</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.91256504158473</v>
+        <v>18.56983503523096</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.12827698322638</v>
+        <v>30.58709817862329</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.413415513884966</v>
+        <v>3.061663765079163</v>
       </c>
       <c r="E11">
-        <v>24.7066250366091</v>
+        <v>33.97152670528085</v>
       </c>
       <c r="F11">
-        <v>21.12279103237451</v>
+        <v>26.22944102290058</v>
       </c>
       <c r="G11">
-        <v>3.573360435061992</v>
+        <v>1.992060435877119</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>23.53575294890928</v>
+        <v>21.63584295006117</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.3258508305911</v>
+        <v>17.35656545371582</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.97850990194764</v>
+        <v>19.34689681291583</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.29987258150918</v>
+        <v>30.9785179891542</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.41938406147874</v>
+        <v>3.082957684776156</v>
       </c>
       <c r="E12">
-        <v>24.86153348525485</v>
+        <v>34.32609572703868</v>
       </c>
       <c r="F12">
-        <v>21.18827006299184</v>
+        <v>26.61043594147135</v>
       </c>
       <c r="G12">
-        <v>3.57270590526298</v>
+        <v>1.990060539178043</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>23.54795116924909</v>
+        <v>21.80193116529862</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.41172248365569</v>
+        <v>17.57228346582585</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.00457322947456</v>
+        <v>19.63799684762706</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.26304005779467</v>
+        <v>30.89458092740227</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.418099060139125</v>
+        <v>3.078381732931071</v>
       </c>
       <c r="E13">
-        <v>24.82824540394294</v>
+        <v>34.25003360547072</v>
       </c>
       <c r="F13">
-        <v>21.17412310164601</v>
+        <v>26.52856564057344</v>
       </c>
       <c r="G13">
-        <v>3.572846318908252</v>
+        <v>1.990490837699028</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>23.54526362692032</v>
+        <v>21.76603245824833</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.39327959325618</v>
+        <v>17.5260195472527</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.99891173985874</v>
+        <v>19.57544121197246</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.14244983536933</v>
+        <v>30.61946392631367</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.413906740510841</v>
+        <v>3.06342015742263</v>
       </c>
       <c r="E14">
-        <v>24.71940269947133</v>
+        <v>34.00083263412484</v>
       </c>
       <c r="F14">
-        <v>21.12815771244647</v>
+        <v>26.26086874944729</v>
       </c>
       <c r="G14">
-        <v>3.573306338086357</v>
+        <v>1.991895713398605</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>23.53672925548435</v>
+        <v>21.64944913177901</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.33293848554147</v>
+        <v>17.37440058067441</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.98063236505383</v>
+        <v>19.3709081857488</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.06822444727526</v>
+        <v>30.44988403006609</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.411337606534123</v>
+        <v>3.054226391703641</v>
       </c>
       <c r="E15">
-        <v>24.65251835650286</v>
+        <v>33.84731137993887</v>
       </c>
       <c r="F15">
-        <v>21.10013511282332</v>
+        <v>26.0963558453691</v>
       </c>
       <c r="G15">
-        <v>3.573589727821145</v>
+        <v>1.992757487776229</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23.53167883856502</v>
+        <v>21.57841548731996</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.29582919302693</v>
+        <v>17.2809581076352</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.96957738695281</v>
+        <v>19.24521916710949</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.63742212245332</v>
+        <v>29.46170377307974</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.396598412020561</v>
+        <v>3.00109673952414</v>
       </c>
       <c r="E16">
-        <v>24.26603857681531</v>
+        <v>32.95416865122871</v>
       </c>
       <c r="F16">
-        <v>20.94162872938678</v>
+        <v>25.14519799055629</v>
       </c>
       <c r="G16">
-        <v>3.575238518796432</v>
+        <v>1.997716470714929</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>23.50545872208314</v>
+        <v>21.17714567121704</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.08093924270206</v>
+        <v>16.73667360951919</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.90840896350636</v>
+        <v>18.51860266455995</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.36836688356495</v>
+        <v>28.84076165170286</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.387543966306685</v>
+        <v>2.968114793117802</v>
       </c>
       <c r="E17">
-        <v>24.02621287129588</v>
+        <v>32.39442711066982</v>
       </c>
       <c r="F17">
-        <v>20.84629808728026</v>
+        <v>24.55408818595528</v>
       </c>
       <c r="G17">
-        <v>3.576272181631497</v>
+        <v>2.000778394876848</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>23.49180910223921</v>
+        <v>20.93617136919883</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.94717228603483</v>
+        <v>16.39487085867406</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.87284432039864</v>
+        <v>18.06707440015371</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.2118965017548</v>
+        <v>28.47816011403672</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.382332442620979</v>
+        <v>2.949004875378377</v>
       </c>
       <c r="E18">
-        <v>23.88731462998073</v>
+        <v>32.06817840703908</v>
       </c>
       <c r="F18">
-        <v>20.79218787940311</v>
+        <v>24.2112644879459</v>
       </c>
       <c r="G18">
-        <v>3.57687489093512</v>
+        <v>2.002547347425792</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>23.48485576325152</v>
+        <v>20.79948613533364</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.86954210698524</v>
+        <v>16.19535341822201</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.85311332892367</v>
+        <v>17.80520499097145</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.15862709604547</v>
+        <v>28.35444928571294</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.380567371528313</v>
+        <v>2.942510947408325</v>
       </c>
       <c r="E19">
-        <v>23.8401263796626</v>
+        <v>31.95698243038119</v>
       </c>
       <c r="F19">
-        <v>20.77399289783739</v>
+        <v>24.09470058599349</v>
       </c>
       <c r="G19">
-        <v>3.577080363858337</v>
+        <v>2.003147677686231</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>23.48265585447735</v>
+        <v>20.75353696964594</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.84314131498535</v>
+        <v>16.1272968604502</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.84655764313071</v>
+        <v>17.71616558792498</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.39718682714348</v>
+        <v>28.90742536449645</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.388508225630372</v>
+        <v>2.971640300770066</v>
       </c>
       <c r="E20">
-        <v>24.0518428515855</v>
+        <v>32.45445871746348</v>
       </c>
       <c r="F20">
-        <v>20.85637198130261</v>
+        <v>24.61730526217103</v>
       </c>
       <c r="G20">
-        <v>3.576161300990329</v>
+        <v>2.000451651284822</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>23.4931692858421</v>
+        <v>20.96162532198242</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.96148401948886</v>
+        <v>16.43155832743847</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.87655531384286</v>
+        <v>18.11536328004543</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.17794539233754</v>
+        <v>30.70049370889352</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.415138385151937</v>
+        <v>3.067820869285621</v>
       </c>
       <c r="E21">
-        <v>24.75141749788959</v>
+        <v>34.07421227498823</v>
       </c>
       <c r="F21">
-        <v>21.14163135961537</v>
+        <v>26.33961024059976</v>
       </c>
       <c r="G21">
-        <v>3.573170882919584</v>
+        <v>1.991482810762285</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>23.53919911016124</v>
+        <v>21.68361394899209</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.35069321267586</v>
+        <v>17.41905373362025</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.98597196656481</v>
+        <v>19.43106895872792</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.67218150690564</v>
+        <v>31.82468987962287</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.432490733882402</v>
+        <v>3.129374229122549</v>
       </c>
       <c r="E22">
-        <v>25.19913033397475</v>
+        <v>35.09361432283888</v>
       </c>
       <c r="F22">
-        <v>21.3340518058423</v>
+        <v>27.44091890244776</v>
       </c>
       <c r="G22">
-        <v>3.57128880028169</v>
+        <v>1.98567851371162</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>23.57721737280778</v>
+        <v>22.17237274737287</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.59846860888076</v>
+        <v>18.03881241732291</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.06383535140738</v>
+        <v>20.27264287806427</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.40989884835629</v>
+        <v>31.22900443634597</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.423235159204453</v>
+        <v>3.096644160899402</v>
       </c>
       <c r="E23">
-        <v>24.96109175791975</v>
+        <v>34.55316496895298</v>
       </c>
       <c r="F23">
-        <v>21.23082722544794</v>
+        <v>26.85530242122949</v>
       </c>
       <c r="G23">
-        <v>3.572286707242905</v>
+        <v>1.988771753664497</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>23.55620340387754</v>
+        <v>21.9099735430465</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.46684978523135</v>
+        <v>17.71036033779718</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.02170228491368</v>
+        <v>19.82510367842282</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.38416288788476</v>
+        <v>28.87730419471405</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.388072302442772</v>
+        <v>2.970046879473323</v>
       </c>
       <c r="E24">
-        <v>24.04025870101654</v>
+        <v>32.42733226491579</v>
       </c>
       <c r="F24">
-        <v>20.85181539893507</v>
+        <v>24.58873413420506</v>
       </c>
       <c r="G24">
-        <v>3.576211403823585</v>
+        <v>2.00059934510823</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>23.492551561413</v>
+        <v>20.95011181269744</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.95501594033633</v>
+        <v>16.41498130395922</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.87487534354424</v>
+        <v>18.09353898814313</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.21269049066636</v>
+        <v>26.1785492135679</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.350015617516521</v>
+        <v>2.828214590584603</v>
       </c>
       <c r="E25">
-        <v>23.01110935645121</v>
+        <v>29.97075030940559</v>
       </c>
       <c r="F25">
-        <v>20.47080148914001</v>
+        <v>22.03543854880953</v>
       </c>
       <c r="G25">
-        <v>3.580757610522254</v>
+        <v>2.013661952601092</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>23.45822308277888</v>
+        <v>19.98816236336109</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.37683258282155</v>
+        <v>14.90583453092733</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.74424433659976</v>
+        <v>16.21978864223035</v>
       </c>
     </row>
   </sheetData>
